--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.370913</v>
+      </c>
+      <c r="H2">
+        <v>1.112739</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.2192063333333333</v>
-      </c>
-      <c r="H2">
-        <v>0.657619</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>46.25093466666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="N2">
-        <v>138.752804</v>
+        <v>0.029549</v>
       </c>
       <c r="O2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="P2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="Q2">
-        <v>10.13849780151955</v>
+        <v>0.003653369412333333</v>
       </c>
       <c r="R2">
-        <v>91.24648021367599</v>
+        <v>0.032880324711</v>
       </c>
       <c r="S2">
-        <v>0.9569015955251317</v>
+        <v>0.0002013876315934659</v>
       </c>
       <c r="T2">
-        <v>0.9569015955251318</v>
+        <v>0.0002013876315934659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.066797333333334</v>
+        <v>46.25093466666667</v>
       </c>
       <c r="N3">
-        <v>6.200392000000001</v>
+        <v>138.752804</v>
       </c>
       <c r="O3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="P3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="Q3">
-        <v>0.4530550651831111</v>
+        <v>17.15507293001733</v>
       </c>
       <c r="R3">
-        <v>4.077495586648</v>
+        <v>154.395656370156</v>
       </c>
       <c r="S3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
       <c r="T3">
-        <v>0.04276068538176182</v>
+        <v>0.9456529349389956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.370913</v>
+      </c>
+      <c r="H4">
+        <v>1.112739</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>2.607896333333333</v>
+      </c>
+      <c r="N4">
+        <v>7.823689</v>
+      </c>
+      <c r="O4">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="P4">
+        <v>0.05332140505715428</v>
+      </c>
+      <c r="Q4">
+        <v>0.9673026526856666</v>
+      </c>
+      <c r="R4">
+        <v>8.705723874170999</v>
+      </c>
+      <c r="S4">
+        <v>0.05332140505715427</v>
+      </c>
+      <c r="T4">
+        <v>0.05332140505715428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.370913</v>
+      </c>
+      <c r="H5">
+        <v>1.112739</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.2192063333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.657619</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.01632333333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.04897</v>
-      </c>
-      <c r="O4">
-        <v>0.0003377190931065126</v>
-      </c>
-      <c r="P4">
-        <v>0.0003377190931065127</v>
-      </c>
-      <c r="Q4">
-        <v>0.003578178047777777</v>
-      </c>
-      <c r="R4">
-        <v>0.03220360243</v>
-      </c>
-      <c r="S4">
-        <v>0.0003377190931065126</v>
-      </c>
-      <c r="T4">
-        <v>0.0003377190931065127</v>
+      <c r="M5">
+        <v>0.04031433333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.120943</v>
+      </c>
+      <c r="O5">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="P5">
+        <v>0.0008242723722565415</v>
+      </c>
+      <c r="Q5">
+        <v>0.01495311031966667</v>
+      </c>
+      <c r="R5">
+        <v>0.134577992877</v>
+      </c>
+      <c r="S5">
+        <v>0.0008242723722565416</v>
+      </c>
+      <c r="T5">
+        <v>0.0008242723722565415</v>
       </c>
     </row>
   </sheetData>
